--- a/IJrepo/src/汇总.xlsx
+++ b/IJrepo/src/汇总.xlsx
@@ -18959,19 +18959,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>187.97</v>
+        <v>85.18</v>
       </c>
       <c r="G2" t="n">
         <v>9.08</v>
@@ -19011,19 +19011,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>85.18</v>
+        <v>18.29</v>
       </c>
       <c r="G4" t="n">
         <v>9.91</v>
@@ -19060,22 +19060,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>44.2</v>
+        <v>39.5</v>
       </c>
       <c r="G6" t="n">
         <v>223.28</v>
@@ -19112,22 +19112,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
-        <v>18.29</v>
+        <v>39.5</v>
       </c>
       <c r="G8" t="n">
         <v>211.1</v>
@@ -19164,22 +19164,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>174.52</v>
+        <v>12.59</v>
       </c>
       <c r="G10" t="n">
         <v>9.23</v>
@@ -19216,22 +19216,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B12" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>18.29</v>
+        <v>21.17</v>
       </c>
       <c r="G12" t="n">
         <v>20.4</v>
@@ -19268,22 +19268,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B14" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>51.42</v>
+        <v>145.08</v>
       </c>
       <c r="G14" t="n">
         <v>49.96</v>
@@ -19320,22 +19320,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B16" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0</v>
+        <v>61.5</v>
       </c>
       <c r="G16" t="n">
         <v>13728.78</v>
@@ -19372,22 +19372,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F18" t="n">
-        <v>39.5</v>
+        <v>4.0</v>
       </c>
       <c r="G18" t="n">
         <v>39.75</v>
@@ -19424,22 +19424,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B20" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
       </c>
       <c r="F20" t="n">
-        <v>39.5</v>
+        <v>5.0</v>
       </c>
       <c r="G20" t="n">
         <v>39.75</v>
@@ -19476,22 +19476,22 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
-        <v>4.0</v>
+        <v>0.4</v>
       </c>
       <c r="G22" t="n">
         <v>94.18</v>
@@ -19528,22 +19528,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B24" t="n">
         <v>4.0</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>2.0</v>
+        <v>21.45</v>
       </c>
       <c r="G24" t="n">
         <v>42.71</v>
@@ -19580,22 +19580,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B26" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>2.0</v>
+        <v>21.45</v>
       </c>
       <c r="G26" t="n">
         <v>315.73</v>
@@ -19632,16 +19632,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B28" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
@@ -19684,7 +19684,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B30" t="n">
         <v>7.0</v>
@@ -19699,7 +19699,7 @@
         <v>28</v>
       </c>
       <c r="F30" t="n">
-        <v>79.0</v>
+        <v>98.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.5</v>
@@ -19736,16 +19736,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B32" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
@@ -19788,22 +19788,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B34" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F34" t="n">
-        <v>2.0</v>
+        <v>0.4</v>
       </c>
       <c r="G34" t="n">
         <v>29.46</v>
@@ -19840,22 +19840,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B36" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>5.0</v>
+        <v>40.47</v>
       </c>
       <c r="G36" t="n">
         <v>13.77</v>
@@ -19892,22 +19892,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F38" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G38" t="n">
         <v>30.45</v>
@@ -19944,22 +19944,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B40" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4</v>
+        <v>422.02</v>
       </c>
       <c r="G40" t="n">
         <v>83.32</v>
@@ -19996,22 +19996,22 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B42" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0</v>
+        <v>93.8</v>
       </c>
       <c r="G42" t="n">
         <v>511.17</v>
@@ -20048,22 +20048,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B44" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F44" t="n">
-        <v>12.59</v>
+        <v>2.0</v>
       </c>
       <c r="G44" t="n">
         <v>8.23</v>
@@ -20100,22 +20100,22 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B46" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F46" t="n">
-        <v>91.93</v>
+        <v>4.0</v>
       </c>
       <c r="G46" t="n">
         <v>9.08</v>
@@ -20152,22 +20152,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B48" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="F48" t="n">
-        <v>333.68</v>
+        <v>168.14</v>
       </c>
       <c r="G48" t="n">
         <v>9.91</v>
@@ -20204,22 +20204,22 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B50" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="F50" t="n">
-        <v>45.59</v>
+        <v>168.14</v>
       </c>
       <c r="G50" t="n">
         <v>223.28</v>
@@ -20256,22 +20256,22 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B52" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>21.17</v>
+        <v>4539.0</v>
       </c>
       <c r="G52" t="n">
         <v>211.1</v>
@@ -20308,22 +20308,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B54" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>233.72</v>
+        <v>752.38</v>
       </c>
       <c r="G54" t="n">
         <v>9.23</v>
@@ -20360,22 +20360,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B56" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>21.17</v>
+        <v>5656.42</v>
       </c>
       <c r="G56" t="n">
         <v>20.4</v>
@@ -20412,22 +20412,22 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B58" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>145.08</v>
+        <v>677.65</v>
       </c>
       <c r="G58" t="n">
         <v>49.96</v>
@@ -20464,22 +20464,22 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="B60" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G60" t="n">
         <v>83430.92</v>
